--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -651,7 +651,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -659,23 +659,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F280"/>
+  <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -683,9 +684,9 @@
   <cols>
     <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="81.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="69.2265625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="35.5390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.22265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1737,7 +1738,7 @@
         <v>83</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>79</v>
@@ -2177,7 +2178,7 @@
         <v>83</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>124</v>
@@ -6292,273 +6293,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE0B5C3-E614-49A8-AEB9-7F7EB14E34C3}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A53F49C-B9A0-4B27-BE94-60ABBA85D736}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{301B03EF-D4ED-48DE-8DE0-42E29C633A4F}"/>
 </file>
--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -618,6 +618,24 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -676,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G280"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6290,6 +6308,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="200">
   <si>
     <t>Sezione</t>
   </si>
@@ -464,18 +464,6 @@
     <t>Opposizione - Estinzione giudizio</t>
   </si>
   <si>
-    <t>Impedimento - Difetto di età</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.autorizzazioneDifettoEta</t>
-  </si>
-  <si>
-    <t>Impedimento - Parentela</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.autorizzazioneParentela</t>
-  </si>
-  <si>
     <t>Legge regime patrimoniale</t>
   </si>
   <si>
@@ -485,6 +473,21 @@
     <t>legge</t>
   </si>
   <si>
+    <t>Impedimento Generico</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
+  </si>
+  <si>
+    <t>Motivazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico</t>
+  </si>
+  <si>
+    <t>motivazione</t>
+  </si>
+  <si>
     <t>Regime patrimoniale - Atto Notarile</t>
   </si>
   <si>
@@ -512,27 +515,6 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Regime patrimoniale - Generalità assistente legale minori</t>
-  </si>
-  <si>
-    <t>Presenza minori</t>
-  </si>
-  <si>
-    <t>presenzaMinori</t>
-  </si>
-  <si>
-    <t>Assistenza minori</t>
-  </si>
-  <si>
-    <t>assistenzaMinori</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.assistenteLegale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.nominaAssistenteLegale</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -596,16 +578,10 @@
     <t>estintaOpposizione</t>
   </si>
   <si>
-    <t>Difetto di età</t>
-  </si>
-  <si>
-    <t>difettoEta</t>
-  </si>
-  <si>
-    <t>Parentela (ovvero: affinità; ovvero: affiliazione)</t>
-  </si>
-  <si>
-    <t>impedimentoParentela</t>
+    <t>Impedimento generico</t>
+  </si>
+  <si>
+    <t>impedimentoGenerico</t>
   </si>
   <si>
     <t>Scelta del regime patrimoniale</t>
@@ -694,16 +670,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.7734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="81.27734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="69.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
   </cols>
@@ -4365,7 +4341,7 @@
         <v>136</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
@@ -4385,7 +4361,7 @@
         <v>138</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -4405,7 +4381,7 @@
         <v>140</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
@@ -4505,7 +4481,7 @@
         <v>136</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
@@ -4525,7 +4501,7 @@
         <v>138</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192">
@@ -4545,7 +4521,7 @@
         <v>140</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193">
@@ -4633,7 +4609,7 @@
         <v>150</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>11</v>
@@ -4642,87 +4618,87 @@
         <v>151</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4730,19 +4706,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4750,19 +4726,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4770,19 +4746,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4790,39 +4766,39 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4830,19 +4806,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4850,19 +4826,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -4870,19 +4846,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -4890,99 +4866,99 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -4990,39 +4966,39 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5030,39 +5006,39 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E217" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5070,39 +5046,39 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5110,39 +5086,39 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5150,39 +5126,39 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5190,39 +5166,39 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5230,119 +5206,119 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5350,39 +5326,39 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5390,39 +5366,39 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5430,19 +5406,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5450,19 +5426,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5470,19 +5446,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5490,19 +5466,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5510,19 +5486,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5530,19 +5506,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5550,19 +5526,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -5570,781 +5546,21 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F282" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="213">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -395,24 +401,36 @@
     <t>evento.datiEventoUnioneCivile.testimone1</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1}</t>
+  </si>
+  <si>
     <t>Testimone 2</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone2</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2}</t>
+  </si>
+  <si>
     <t>Testimone 3</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone3</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3}</t>
+  </si>
+  <si>
     <t>Testimone 4</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone4</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4}</t>
+  </si>
+  <si>
     <t>Opposizione - Sentenza di rigetto</t>
   </si>
   <si>
@@ -425,6 +443,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.rigettoOpposizione,=,false}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -464,6 +485,9 @@
     <t>Opposizione - Estinzione giudizio</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.estintaOpposizione,=,false}</t>
+  </si>
+  <si>
     <t>Legge regime patrimoniale</t>
   </si>
   <si>
@@ -473,12 +497,18 @@
     <t>legge</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3}</t>
+  </si>
+  <si>
     <t>Impedimento Generico</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.impedimentoGenerico,=,0}</t>
+  </si>
+  <si>
     <t>Motivazione</t>
   </si>
   <si>
@@ -497,6 +527,9 @@
     <t>nomeNotaio</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false}</t>
+  </si>
+  <si>
     <t>Cognome Notaio</t>
   </si>
   <si>
@@ -524,6 +557,9 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
+  </si>
+  <si>
     <t>195,196</t>
   </si>
   <si>
@@ -606,6 +642,9 @@
   </si>
   <si>
     <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1}</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -670,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -682,6 +721,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="66.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -703,545 +743,629 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1263,4305 +1387,4953 @@
       <c r="F29" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F203" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="214">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,103 +32,106 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Certificato della richiesta di costituzione 1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Certificato della richiesta di costituzione 2</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Rigetto del Tribunale all'opposizione</t>
+  </si>
+  <si>
+    <t>Ordinanza che dichiara estinto il giudizio di opposizione</t>
+  </si>
+  <si>
+    <t>Decreto del tribunale per autorizzazione nonostante impedimento di età</t>
+  </si>
+  <si>
+    <t>Decreto del tribunale per autorizzazione nonostante impedimento di affinità o affiliazione</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>73-bis</t>
+  </si>
+  <si>
+    <t>73-ter</t>
+  </si>
+  <si>
+    <t>73-quater</t>
+  </si>
+  <si>
+    <t>73-sexies</t>
+  </si>
+  <si>
+    <t>73-septies</t>
+  </si>
+  <si>
+    <t>73-octies</t>
+  </si>
+  <si>
+    <t>73-nonies</t>
+  </si>
+  <si>
+    <t>73-decies</t>
+  </si>
+  <si>
+    <t>73-undecies</t>
+  </si>
+  <si>
+    <t>73-duodecies</t>
+  </si>
+  <si>
+    <t>73-terdecies</t>
+  </si>
+  <si>
+    <t>73-quaterdecies</t>
+  </si>
+  <si>
+    <t>73-quinquiesdecies</t>
+  </si>
+  <si>
+    <t>73-sexiesdecies</t>
+  </si>
+  <si>
+    <t>73-septiesdecies</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Certificato della richiesta di costituzione 1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Certificato della richiesta di costituzione 2</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Rigetto del Tribunale all'opposizione</t>
-  </si>
-  <si>
-    <t>Ordinanza che dichiara estinto il giudizio di opposizione</t>
-  </si>
-  <si>
-    <t>Decreto del tribunale per autorizzazione nonostante impedimento di età</t>
-  </si>
-  <si>
-    <t>Decreto del tribunale per autorizzazione nonostante impedimento di affinità o affiliazione</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>73-bis</t>
-  </si>
-  <si>
-    <t>73-ter</t>
-  </si>
-  <si>
-    <t>73-quater</t>
-  </si>
-  <si>
-    <t>73-sexies</t>
-  </si>
-  <si>
-    <t>73-septies</t>
-  </si>
-  <si>
-    <t>73-octies</t>
-  </si>
-  <si>
-    <t>73-nonies</t>
-  </si>
-  <si>
-    <t>73-decies</t>
-  </si>
-  <si>
-    <t>73-undecies</t>
-  </si>
-  <si>
-    <t>73-duodecies</t>
-  </si>
-  <si>
-    <t>73-terdecies</t>
-  </si>
-  <si>
-    <t>73-quaterdecies</t>
-  </si>
-  <si>
-    <t>73-quinquiesdecies</t>
-  </si>
-  <si>
-    <t>73-sexiesdecies</t>
-  </si>
-  <si>
-    <t>73-septiesdecies</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -1388,4952 +1391,4952 @@
         <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F217" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F225" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F228" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="215">
   <si>
     <t>Sezione</t>
   </si>
@@ -404,7 +404,7 @@
     <t>evento.datiEventoUnioneCivile.testimone1</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
     <t>Testimone 2</t>
@@ -413,7 +413,7 @@
     <t>evento.datiEventoUnioneCivile.testimone2</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2</t>
   </si>
   <si>
     <t>Testimone 3</t>
@@ -422,7 +422,7 @@
     <t>evento.datiEventoUnioneCivile.testimone3</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3</t>
   </si>
   <si>
     <t>Testimone 4</t>
@@ -431,7 +431,7 @@
     <t>evento.datiEventoUnioneCivile.testimone4</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4</t>
   </si>
   <si>
     <t>Opposizione - Sentenza di rigetto</t>
@@ -446,7 +446,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.rigettoOpposizione,=,false}</t>
+    <t>evento.datiEventoUnioneCivile.rigettoOpposizione,=,false</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -488,7 +488,10 @@
     <t>Opposizione - Estinzione giudizio</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.estintaOpposizione,=,false}</t>
+    <t>evento.datiEventoUnioneCivile.provvedimentoEstinzioneOpposizione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.estintaOpposizione,=,false</t>
   </si>
   <si>
     <t>Legge regime patrimoniale</t>
@@ -500,7 +503,7 @@
     <t>legge</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3</t>
   </si>
   <si>
     <t>Impedimento Generico</t>
@@ -509,7 +512,7 @@
     <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.impedimentoGenerico,=,0}</t>
+    <t>evento.datiEventoUnioneCivile.impedimentoGenerico,=,0</t>
   </si>
   <si>
     <t>Motivazione</t>
@@ -530,7 +533,7 @@
     <t>nomeNotaio</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false</t>
   </si>
   <si>
     <t>Cognome Notaio</t>
@@ -560,7 +563,7 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>195,196</t>
@@ -647,7 +650,7 @@
     <t>tipoAnnotazione</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -724,7 +727,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="66.2421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="64.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5085,7 +5088,7 @@
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>143</v>
@@ -5094,7 +5097,7 @@
         <v>19</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="191">
@@ -5108,7 +5111,7 @@
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>146</v>
@@ -5117,7 +5120,7 @@
         <v>19</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192">
@@ -5131,7 +5134,7 @@
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>148</v>
@@ -5140,7 +5143,7 @@
         <v>19</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193">
@@ -5154,7 +5157,7 @@
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>150</v>
@@ -5163,7 +5166,7 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="194">
@@ -5177,7 +5180,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>152</v>
@@ -5186,7 +5189,7 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="195">
@@ -5200,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>154</v>
@@ -5209,7 +5212,7 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196">
@@ -5223,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>156</v>
@@ -5232,35 +5235,35 @@
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>141</v>
@@ -5269,7 +5272,7 @@
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>143</v>
@@ -5278,12 +5281,12 @@
         <v>20</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>145</v>
@@ -5292,7 +5295,7 @@
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>146</v>
@@ -5301,12 +5304,12 @@
         <v>20</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>147</v>
@@ -5315,7 +5318,7 @@
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>148</v>
@@ -5324,12 +5327,12 @@
         <v>20</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>149</v>
@@ -5338,7 +5341,7 @@
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>150</v>
@@ -5347,12 +5350,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>151</v>
@@ -5361,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>152</v>
@@ -5370,12 +5373,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>153</v>
@@ -5384,7 +5387,7 @@
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>154</v>
@@ -5393,12 +5396,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>155</v>
@@ -5407,7 +5410,7 @@
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>156</v>
@@ -5416,127 +5419,127 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>63</v>
@@ -5545,21 +5548,21 @@
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>65</v>
@@ -5568,7 +5571,7 @@
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>85</v>
@@ -5577,12 +5580,12 @@
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>86</v>
@@ -5591,7 +5594,7 @@
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>87</v>
@@ -5600,12 +5603,12 @@
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>88</v>
@@ -5614,7 +5617,7 @@
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>89</v>
@@ -5623,12 +5626,12 @@
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>90</v>
@@ -5637,7 +5640,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>91</v>
@@ -5646,12 +5649,12 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>92</v>
@@ -5660,7 +5663,7 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>93</v>
@@ -5669,12 +5672,12 @@
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>94</v>
@@ -5683,7 +5686,7 @@
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>95</v>
@@ -5692,12 +5695,12 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>96</v>
@@ -5706,21 +5709,21 @@
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F217" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>98</v>
@@ -5729,7 +5732,7 @@
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>99</v>
@@ -5738,12 +5741,12 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>100</v>
@@ -5752,21 +5755,21 @@
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>102</v>
@@ -5775,7 +5778,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>103</v>
@@ -5784,12 +5787,12 @@
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>104</v>
@@ -5798,7 +5801,7 @@
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>105</v>
@@ -5807,12 +5810,12 @@
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>106</v>
@@ -5821,7 +5824,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>107</v>
@@ -5830,12 +5833,12 @@
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>108</v>
@@ -5844,7 +5847,7 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>109</v>
@@ -5853,12 +5856,12 @@
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>110</v>
@@ -5867,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>111</v>
@@ -5876,12 +5879,12 @@
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>112</v>
@@ -5890,21 +5893,21 @@
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F225" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>114</v>
@@ -5913,7 +5916,7 @@
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>115</v>
@@ -5922,12 +5925,12 @@
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>116</v>
@@ -5936,21 +5939,21 @@
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>118</v>
@@ -5959,21 +5962,21 @@
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F228" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>120</v>
@@ -5982,7 +5985,7 @@
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>121</v>
@@ -5991,12 +5994,12 @@
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>122</v>
@@ -6005,7 +6008,7 @@
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>123</v>
@@ -6014,12 +6017,12 @@
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>124</v>
@@ -6028,7 +6031,7 @@
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>125</v>
@@ -6037,15 +6040,15 @@
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -6054,7 +6057,7 @@
         <v>53</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
@@ -6065,10 +6068,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
@@ -6077,7 +6080,7 @@
         <v>53</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>28</v>
@@ -6088,10 +6091,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -6100,7 +6103,7 @@
         <v>53</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
@@ -6111,10 +6114,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
@@ -6123,7 +6126,7 @@
         <v>53</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>28</v>
@@ -6134,10 +6137,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -6146,7 +6149,7 @@
         <v>42</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
@@ -6157,10 +6160,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -6169,7 +6172,7 @@
         <v>53</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6180,10 +6183,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
@@ -6192,7 +6195,7 @@
         <v>53</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -6203,10 +6206,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
@@ -6215,7 +6218,7 @@
         <v>53</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
@@ -6226,10 +6229,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
@@ -6238,7 +6241,7 @@
         <v>53</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -6249,19 +6252,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -6272,19 +6275,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
@@ -6295,48 +6298,48 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="217">
   <si>
     <t>Sezione</t>
   </si>
@@ -651,6 +651,12 @@
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -715,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6342,6 +6348,29 @@
         <v>212</v>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="217">
   <si>
     <t>Sezione</t>
   </si>
@@ -200,19 +200,145 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare l’unione civile</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>cognomeOfficiante</t>
+    <t>evento.datiEventoUnioneCivile.officianteEvento</t>
+  </si>
+  <si>
+    <t>cognome</t>
   </si>
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>nomeOfficiante</t>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Certificato di richiesta di costituzione 1</t>
@@ -263,133 +389,7 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
     <t>73-sexiesdecies,73-terdecies,73-octies,73-nonies,73-undecies,73-decies,73-duodecies</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -721,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1592,7 +1592,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1601,7 +1601,7 @@
         <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1615,16 +1615,16 @@
         <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1638,16 +1638,16 @@
         <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1658,16 +1658,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>70</v>
@@ -1681,16 +1681,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>72</v>
@@ -1704,16 +1704,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>74</v>
@@ -1727,16 +1727,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>76</v>
@@ -1750,16 +1750,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>78</v>
@@ -1773,19 +1773,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1796,22 +1796,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>44</v>
@@ -1819,19 +1819,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1842,22 +1842,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>44</v>
@@ -1865,22 +1865,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>44</v>
@@ -1888,22 +1888,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>44</v>
@@ -1911,19 +1911,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1934,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1957,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1980,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2003,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2026,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2049,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2072,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2095,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2118,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2141,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2164,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2187,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2210,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2233,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2256,22 +2256,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>44</v>
@@ -2279,19 +2279,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2302,22 +2302,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>44</v>
@@ -2325,22 +2325,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>44</v>
@@ -2348,22 +2348,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>44</v>
@@ -2371,19 +2371,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2394,22 +2394,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>44</v>
@@ -2417,19 +2417,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2440,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2463,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2486,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2509,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2532,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2555,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2578,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2601,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2624,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2647,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2670,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2693,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2716,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2739,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2762,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2785,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2808,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2831,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2857,19 @@
         <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>44</v>
@@ -2880,7 +2880,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2889,7 +2889,7 @@
         <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2900,462 +2900,462 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115">
@@ -3363,16 +3363,16 @@
         <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3386,7 +3386,7 @@
         <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3395,7 +3395,7 @@
         <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3406,462 +3406,462 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137">
@@ -3869,16 +3869,16 @@
         <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3892,7 +3892,7 @@
         <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3901,7 +3901,7 @@
         <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3912,462 +3912,462 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159">
@@ -4375,16 +4375,16 @@
         <v>134</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4398,7 +4398,7 @@
         <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4407,7 +4407,7 @@
         <v>135</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4418,462 +4418,462 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181">
@@ -4881,16 +4881,16 @@
         <v>137</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4904,7 +4904,7 @@
         <v>137</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4913,7 +4913,7 @@
         <v>138</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4924,1083 +4924,1083 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="230">
@@ -6008,19 +6008,19 @@
         <v>180</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>183</v>
@@ -6031,7 +6031,7 @@
         <v>180</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -6040,7 +6040,7 @@
         <v>181</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
@@ -6051,323 +6051,783 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B263" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="2" t="s">
+      <c r="C265" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E245" s="2" t="s">
+      <c r="E265" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F245" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" s="2" t="s">
+      <c r="F265" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" s="2" t="s">
         <v>212</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="219">
   <si>
     <t>Sezione</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -721,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2055,7 +2061,7 @@
         <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>65</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2141,16 +2147,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>114</v>
@@ -2164,7 +2170,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>115</v>
@@ -2173,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>116</v>
@@ -2187,7 +2193,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>117</v>
@@ -2196,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>118</v>
@@ -2210,7 +2216,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>119</v>
@@ -2219,7 +2225,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>120</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2256,22 +2262,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>44</v>
@@ -2279,7 +2285,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>115</v>
@@ -2288,13 +2294,13 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>44</v>
@@ -2302,7 +2308,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>117</v>
@@ -2311,13 +2317,13 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>44</v>
@@ -2325,7 +2331,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>119</v>
@@ -2334,7 +2340,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>120</v>
@@ -2351,7 +2357,7 @@
         <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -2360,10 +2366,10 @@
         <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>44</v>
@@ -2371,22 +2377,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>44</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2515,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2854,22 +2860,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>44</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2900,22 +2906,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>44</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3090,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3136,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3159,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3176,19 +3182,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3274,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3297,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3320,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3337,19 +3343,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3363,22 +3369,22 @@
         <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
@@ -3386,7 +3392,7 @@
         <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3395,13 +3401,13 @@
         <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117">
@@ -3409,3296 +3415,3296 @@
         <v>128</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="E203" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E207" s="2" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E208" s="2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E209" s="2" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E211" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E216" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2" t="s">
+      <c r="F224" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E225" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6707,7 +6713,7 @@
         <v>53</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
@@ -6718,22 +6724,22 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>44</v>
@@ -6741,19 +6747,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -6764,71 +6770,255 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="C270" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D265" s="2" t="s">
+      <c r="C272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E265" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G265" s="2" t="s">
+      <c r="B273" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="2" t="s">
         <v>212</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -3694,7 +3694,7 @@
         <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>131</v>
@@ -3717,7 +3717,7 @@
         <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>131</v>
@@ -4223,7 +4223,7 @@
         <v>87</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>134</v>
@@ -4246,7 +4246,7 @@
         <v>89</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>134</v>
@@ -4752,7 +4752,7 @@
         <v>87</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>137</v>
@@ -4775,7 +4775,7 @@
         <v>89</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>137</v>
@@ -5281,7 +5281,7 @@
         <v>87</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>140</v>
@@ -5304,7 +5304,7 @@
         <v>89</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>140</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="220">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 1</t>
+    <t>Verbale di richiesta dell'unione civile 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 2</t>
+    <t>Verbale di richiesta dell'unione civile 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -569,10 +569,13 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -739,7 +742,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="64.85546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6681,7 +6684,7 @@
         <v>182</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6701,10 +6704,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6713,7 +6716,7 @@
         <v>53</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
@@ -6724,10 +6727,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
@@ -6736,7 +6739,7 @@
         <v>53</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>28</v>
@@ -6747,10 +6750,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6759,7 +6762,7 @@
         <v>53</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -6770,10 +6773,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
@@ -6782,7 +6785,7 @@
         <v>53</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>28</v>
@@ -6793,10 +6796,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6805,7 +6808,7 @@
         <v>42</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -6816,10 +6819,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6828,7 +6831,7 @@
         <v>53</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -6839,10 +6842,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6851,7 +6854,7 @@
         <v>53</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -6862,10 +6865,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6874,7 +6877,7 @@
         <v>53</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -6885,10 +6888,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6897,7 +6900,7 @@
         <v>53</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -6908,10 +6911,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6920,7 +6923,7 @@
         <v>163</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -6931,10 +6934,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6943,7 +6946,7 @@
         <v>163</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
@@ -6954,71 +6957,71 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="219">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Verbale di richiesta dell'unione civile 1</t>
+    <t>Certificato della richiesta di costituzione 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Verbale di richiesta dell'unione civile 2</t>
+    <t>Certificato della richiesta di costituzione 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -573,9 +573,6 @@
   </si>
   <si>
     <t>195,196</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -6684,7 +6681,7 @@
         <v>182</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6704,10 +6701,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6716,7 +6713,7 @@
         <v>53</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
@@ -6727,10 +6724,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
@@ -6739,7 +6736,7 @@
         <v>53</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>28</v>
@@ -6750,10 +6747,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6762,7 +6759,7 @@
         <v>53</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -6773,10 +6770,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
@@ -6785,7 +6782,7 @@
         <v>53</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>28</v>
@@ -6796,10 +6793,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6808,7 +6805,7 @@
         <v>42</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -6819,10 +6816,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6831,7 +6828,7 @@
         <v>53</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -6842,10 +6839,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6854,7 +6851,7 @@
         <v>53</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -6865,10 +6862,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6877,7 +6874,7 @@
         <v>53</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -6888,10 +6885,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6900,7 +6897,7 @@
         <v>53</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -6911,10 +6908,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6923,7 +6920,7 @@
         <v>163</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -6934,10 +6931,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6946,7 +6943,7 @@
         <v>163</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
@@ -6957,71 +6954,71 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="C271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271" s="2" t="s">
+      <c r="E271" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E271" s="2" t="s">
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="220">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 1</t>
+    <t>Verbale di richiesta dell'unione civile 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 2</t>
+    <t>Verbale di richiesta dell'unione civile 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -6681,7 +6684,7 @@
         <v>182</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6701,10 +6704,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
@@ -6713,7 +6716,7 @@
         <v>53</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
@@ -6724,10 +6727,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
@@ -6736,7 +6739,7 @@
         <v>53</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>28</v>
@@ -6747,10 +6750,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6759,7 +6762,7 @@
         <v>53</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -6770,10 +6773,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
@@ -6782,7 +6785,7 @@
         <v>53</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>28</v>
@@ -6793,10 +6796,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6805,7 +6808,7 @@
         <v>42</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -6816,10 +6819,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6828,7 +6831,7 @@
         <v>53</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -6839,10 +6842,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6851,7 +6854,7 @@
         <v>53</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -6862,10 +6865,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6874,7 +6877,7 @@
         <v>53</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -6885,10 +6888,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6897,7 +6900,7 @@
         <v>53</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -6908,10 +6911,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -6920,7 +6923,7 @@
         <v>163</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -6931,10 +6934,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
@@ -6943,7 +6946,7 @@
         <v>163</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
@@ -6954,71 +6957,71 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="228">
   <si>
     <t>Sezione</t>
   </si>
@@ -396,6 +396,30 @@
   </si>
   <si>
     <t>73-sexiesdecies,73-terdecies,73-octies,73-nonies,73-undecies,73-decies,73-duodecies</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -730,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2909,22 +2933,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>44</v>
@@ -2932,19 +2956,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2979,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2978,19 +3002,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3001,22 +3025,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>44</v>
@@ -3024,19 +3048,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3071,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3094,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3117,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3140,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3163,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3186,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3185,19 +3209,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3208,19 +3232,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3255,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3254,19 +3278,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3301,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3324,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3347,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3370,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3393,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3392,19 +3416,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3415,19 +3439,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3438,3460 +3462,3460 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C221" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D241" s="2" t="s">
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E261" s="2" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -6900,7 +6924,7 @@
         <v>53</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -6911,22 +6935,22 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>44</v>
@@ -6934,19 +6958,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
@@ -6957,71 +6981,255 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="C275" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E273" s="2" t="s">
+      <c r="F278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F273" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>215</v>
+      <c r="B279" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -2456,7 +2456,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>126</v>
@@ -3077,7 +3077,7 @@
         <v>69</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>137</v>
@@ -3698,7 +3698,7 @@
         <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>139</v>
@@ -4227,7 +4227,7 @@
         <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>142</v>
@@ -4756,7 +4756,7 @@
         <v>69</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>145</v>
@@ -5285,7 +5285,7 @@
         <v>69</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>148</v>
@@ -5929,7 +5929,7 @@
         <v>151</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>168</v>
@@ -5938,7 +5938,7 @@
         <v>153</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>169</v>
@@ -5952,7 +5952,7 @@
         <v>155</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>168</v>
@@ -5961,7 +5961,7 @@
         <v>156</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>169</v>
@@ -5975,7 +5975,7 @@
         <v>157</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>168</v>
@@ -5984,7 +5984,7 @@
         <v>158</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>169</v>
@@ -5998,7 +5998,7 @@
         <v>159</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>168</v>
@@ -6021,7 +6021,7 @@
         <v>161</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>168</v>
@@ -6044,7 +6044,7 @@
         <v>163</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>168</v>
@@ -6067,7 +6067,7 @@
         <v>165</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>168</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="230">
   <si>
     <t>Sezione</t>
   </si>
@@ -221,6 +221,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -275,13 +281,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -754,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H281"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2111,7 +2117,7 @@
         <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>65</v>
@@ -2174,19 +2180,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2197,16 +2203,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>116</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>117</v>
@@ -2229,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>118</v>
@@ -2243,7 +2249,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>119</v>
@@ -2252,7 +2258,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>120</v>
@@ -2266,7 +2272,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>121</v>
@@ -2275,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>122</v>
@@ -2289,19 +2295,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2312,22 +2318,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>44</v>
@@ -2335,7 +2341,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>117</v>
@@ -2344,13 +2350,13 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>44</v>
@@ -2358,7 +2364,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>119</v>
@@ -2367,13 +2373,13 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>44</v>
@@ -2381,7 +2387,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>121</v>
@@ -2390,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>122</v>
@@ -2407,7 +2413,7 @@
         <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -2416,10 +2422,10 @@
         <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>44</v>
@@ -2427,22 +2433,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>44</v>
@@ -2450,19 +2456,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2479,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2502,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2525,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2548,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2571,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2594,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2617,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2640,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2663,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2686,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2709,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2726,19 +2732,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2755,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2778,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2801,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2870,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2887,19 +2893,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2910,19 +2916,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2933,19 +2939,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2962,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2979,19 +2985,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3025,22 +3031,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>44</v>
@@ -3048,19 +3054,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3071,22 +3077,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>44</v>
@@ -3094,19 +3100,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3117,19 +3123,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3146,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3169,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3192,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3209,19 +3215,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3238,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3255,19 +3261,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3278,19 +3284,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3307,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3324,19 +3330,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3347,19 +3353,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3370,19 +3376,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3399,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3422,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3439,19 +3445,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3468,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3491,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3514,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3531,19 +3537,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3554,19 +3560,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3577,19 +3583,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3600,19 +3606,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3629,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3649,7 +3655,7 @@
         <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
@@ -3658,13 +3664,13 @@
         <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127">
@@ -3672,22 +3678,22 @@
         <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128">
@@ -3695,3411 +3701,3411 @@
         <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="E172" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="E173" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="E174" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2" t="s">
+      <c r="E195" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="E199" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="E200" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="E218" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E219" s="2" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E220" s="2" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E221" s="2" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E222" s="2" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E223" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E224" s="2" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E226" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="2" t="s">
+      <c r="E232" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="F239" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E240" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E251" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>194</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F269" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G269" s="2" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F272" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G272" s="2" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -7108,7 +7114,7 @@
         <v>53</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
@@ -7119,22 +7125,22 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>44</v>
@@ -7142,19 +7148,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
@@ -7165,71 +7171,255 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="C286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D281" s="2" t="s">
+      <c r="C288" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E281" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G281" s="2" t="s">
+      <c r="B289" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="2" t="s">
         <v>223</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="229">
   <si>
     <t>Sezione</t>
   </si>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>195,196</t>
   </si>
   <si>
     <t>Firmatario</t>
@@ -6749,7 +6746,7 @@
         <v>82</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>195</v>
@@ -6818,7 +6815,7 @@
         <v>88</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>195</v>
@@ -6956,7 +6953,7 @@
         <v>100</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>195</v>
@@ -7025,7 +7022,7 @@
         <v>106</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>195</v>
@@ -7082,7 +7079,7 @@
         <v>192</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -7102,10 +7099,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -7114,7 +7111,7 @@
         <v>53</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
@@ -7125,10 +7122,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
@@ -7137,7 +7134,7 @@
         <v>53</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>28</v>
@@ -7148,10 +7145,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -7160,7 +7157,7 @@
         <v>53</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
@@ -7171,10 +7168,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
@@ -7183,7 +7180,7 @@
         <v>53</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>28</v>
@@ -7194,10 +7191,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -7206,7 +7203,7 @@
         <v>42</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
@@ -7217,10 +7214,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
@@ -7229,7 +7226,7 @@
         <v>53</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
@@ -7240,10 +7237,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
@@ -7252,7 +7249,7 @@
         <v>53</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
@@ -7263,10 +7260,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
@@ -7275,7 +7272,7 @@
         <v>53</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
@@ -7286,10 +7283,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
@@ -7298,7 +7295,7 @@
         <v>53</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
@@ -7309,10 +7306,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
@@ -7321,7 +7318,7 @@
         <v>173</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
@@ -7332,10 +7329,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -7344,7 +7341,7 @@
         <v>173</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
@@ -7355,71 +7352,71 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="C287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D287" s="2" t="s">
+      <c r="E287" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E287" s="2" t="s">
+      <c r="F287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="256">
   <si>
     <t>Sezione</t>
   </si>
@@ -432,6 +432,87 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto di Nascita Unito Civilmente 1</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge1</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto di Nascita Unito Civilmente 2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge2</t>
   </si>
   <si>
     <t>Testimone 1</t>
@@ -757,7 +838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3721,22 +3802,22 @@
         <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130">
@@ -3744,22 +3825,22 @@
         <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131">
@@ -3767,22 +3848,22 @@
         <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132">
@@ -3790,22 +3871,22 @@
         <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133">
@@ -3813,22 +3894,22 @@
         <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134">
@@ -3836,22 +3917,22 @@
         <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135">
@@ -3859,22 +3940,22 @@
         <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136">
@@ -3882,22 +3963,22 @@
         <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137">
@@ -3905,22 +3986,22 @@
         <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138">
@@ -3928,22 +4009,22 @@
         <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139">
@@ -3951,22 +4032,22 @@
         <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140">
@@ -3974,303 +4055,303 @@
         <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>64</v>
@@ -4279,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>66</v>
@@ -4288,12 +4369,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>67</v>
@@ -4302,7 +4383,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>68</v>
@@ -4311,12 +4392,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>69</v>
@@ -4325,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>70</v>
@@ -4334,12 +4415,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>71</v>
@@ -4348,7 +4429,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>72</v>
@@ -4357,12 +4438,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>73</v>
@@ -4371,7 +4452,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>74</v>
@@ -4380,12 +4461,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>75</v>
@@ -4394,7 +4475,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>76</v>
@@ -4403,12 +4484,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>77</v>
@@ -4417,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>78</v>
@@ -4426,12 +4507,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>79</v>
@@ -4440,7 +4521,7 @@
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>80</v>
@@ -4449,12 +4530,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>81</v>
@@ -4463,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>82</v>
@@ -4472,12 +4553,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>83</v>
@@ -4486,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>84</v>
@@ -4495,12 +4576,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>85</v>
@@ -4509,7 +4590,7 @@
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>86</v>
@@ -4518,12 +4599,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>87</v>
@@ -4532,7 +4613,7 @@
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>88</v>
@@ -4541,12 +4622,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>89</v>
@@ -4555,7 +4636,7 @@
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>90</v>
@@ -4564,12 +4645,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>91</v>
@@ -4578,7 +4659,7 @@
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>92</v>
@@ -4587,12 +4668,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>93</v>
@@ -4601,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>94</v>
@@ -4610,12 +4691,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>95</v>
@@ -4624,7 +4705,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>96</v>
@@ -4633,12 +4714,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>97</v>
@@ -4647,7 +4728,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>98</v>
@@ -4656,12 +4737,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>99</v>
@@ -4670,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>100</v>
@@ -4679,12 +4760,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>101</v>
@@ -4693,7 +4774,7 @@
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>102</v>
@@ -4702,12 +4783,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>103</v>
@@ -4716,7 +4797,7 @@
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>104</v>
@@ -4725,12 +4806,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>105</v>
@@ -4739,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>106</v>
@@ -4748,12 +4829,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>107</v>
@@ -4762,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>108</v>
@@ -4771,12 +4852,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>109</v>
@@ -4785,7 +4866,7 @@
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>110</v>
@@ -4794,12 +4875,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>111</v>
@@ -4808,7 +4889,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>112</v>
@@ -4817,12 +4898,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>64</v>
@@ -4831,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>66</v>
@@ -4840,12 +4921,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>67</v>
@@ -4854,7 +4935,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>68</v>
@@ -4863,12 +4944,12 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>69</v>
@@ -4877,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>70</v>
@@ -4886,12 +4967,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>71</v>
@@ -4900,7 +4981,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>72</v>
@@ -4909,12 +4990,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>73</v>
@@ -4923,7 +5004,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>74</v>
@@ -4932,12 +5013,12 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>75</v>
@@ -4946,7 +5027,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>76</v>
@@ -4955,12 +5036,12 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>77</v>
@@ -4969,7 +5050,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>78</v>
@@ -4978,12 +5059,12 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>79</v>
@@ -4992,7 +5073,7 @@
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>80</v>
@@ -5001,12 +5082,12 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>81</v>
@@ -5015,7 +5096,7 @@
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>82</v>
@@ -5024,12 +5105,12 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>83</v>
@@ -5038,7 +5119,7 @@
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>84</v>
@@ -5047,12 +5128,12 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>85</v>
@@ -5061,7 +5142,7 @@
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>86</v>
@@ -5070,12 +5151,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>87</v>
@@ -5084,7 +5165,7 @@
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>88</v>
@@ -5093,12 +5174,12 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>89</v>
@@ -5107,7 +5188,7 @@
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>90</v>
@@ -5116,12 +5197,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>91</v>
@@ -5130,7 +5211,7 @@
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>92</v>
@@ -5139,12 +5220,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>93</v>
@@ -5153,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>94</v>
@@ -5162,12 +5243,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>95</v>
@@ -5176,7 +5257,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>96</v>
@@ -5185,12 +5266,12 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>97</v>
@@ -5199,7 +5280,7 @@
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>98</v>
@@ -5208,12 +5289,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>99</v>
@@ -5222,7 +5303,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>100</v>
@@ -5231,12 +5312,12 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>101</v>
@@ -5245,7 +5326,7 @@
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>102</v>
@@ -5254,12 +5335,12 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>103</v>
@@ -5268,7 +5349,7 @@
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>104</v>
@@ -5277,12 +5358,12 @@
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>105</v>
@@ -5291,7 +5372,7 @@
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>106</v>
@@ -5300,12 +5381,12 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>107</v>
@@ -5314,7 +5395,7 @@
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>108</v>
@@ -5323,12 +5404,12 @@
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>109</v>
@@ -5337,7 +5418,7 @@
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>110</v>
@@ -5346,12 +5427,12 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>111</v>
@@ -5360,7 +5441,7 @@
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>112</v>
@@ -5369,12 +5450,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>64</v>
@@ -5383,7 +5464,7 @@
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>66</v>
@@ -5392,12 +5473,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>67</v>
@@ -5406,7 +5487,7 @@
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>68</v>
@@ -5415,12 +5496,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>69</v>
@@ -5429,7 +5510,7 @@
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>70</v>
@@ -5438,12 +5519,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>71</v>
@@ -5452,7 +5533,7 @@
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>72</v>
@@ -5461,12 +5542,12 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>73</v>
@@ -5475,7 +5556,7 @@
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>74</v>
@@ -5484,12 +5565,12 @@
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>75</v>
@@ -5498,7 +5579,7 @@
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>76</v>
@@ -5507,12 +5588,12 @@
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>77</v>
@@ -5521,7 +5602,7 @@
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>78</v>
@@ -5530,12 +5611,12 @@
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>79</v>
@@ -5544,7 +5625,7 @@
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>80</v>
@@ -5553,12 +5634,12 @@
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>81</v>
@@ -5567,7 +5648,7 @@
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>82</v>
@@ -5576,12 +5657,12 @@
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>83</v>
@@ -5590,7 +5671,7 @@
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>84</v>
@@ -5599,12 +5680,12 @@
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>85</v>
@@ -5613,7 +5694,7 @@
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>86</v>
@@ -5622,12 +5703,12 @@
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>87</v>
@@ -5636,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>88</v>
@@ -5645,12 +5726,12 @@
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>89</v>
@@ -5659,7 +5740,7 @@
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>90</v>
@@ -5668,12 +5749,12 @@
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>91</v>
@@ -5682,7 +5763,7 @@
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>92</v>
@@ -5691,12 +5772,12 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>93</v>
@@ -5705,7 +5786,7 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>94</v>
@@ -5714,12 +5795,12 @@
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>95</v>
@@ -5728,7 +5809,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>96</v>
@@ -5737,12 +5818,12 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>97</v>
@@ -5751,7 +5832,7 @@
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>98</v>
@@ -5760,12 +5841,12 @@
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>99</v>
@@ -5774,7 +5855,7 @@
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>100</v>
@@ -5783,12 +5864,12 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>101</v>
@@ -5797,7 +5878,7 @@
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>102</v>
@@ -5806,12 +5887,12 @@
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>103</v>
@@ -5820,7 +5901,7 @@
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>104</v>
@@ -5829,12 +5910,12 @@
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>105</v>
@@ -5843,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>106</v>
@@ -5852,12 +5933,12 @@
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>107</v>
@@ -5866,7 +5947,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>108</v>
@@ -5875,12 +5956,12 @@
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>109</v>
@@ -5889,7 +5970,7 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>110</v>
@@ -5898,12 +5979,12 @@
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>111</v>
@@ -5912,7 +5993,7 @@
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>112</v>
@@ -5921,352 +6002,352 @@
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="240">
@@ -6274,19 +6355,19 @@
         <v>176</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>178</v>
@@ -6297,7 +6378,7 @@
         <v>176</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
@@ -6306,10 +6387,10 @@
         <v>177</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>178</v>
@@ -6320,7 +6401,7 @@
         <v>176</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
@@ -6329,10 +6410,10 @@
         <v>177</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>178</v>
@@ -6343,7 +6424,7 @@
         <v>176</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
@@ -6352,7 +6433,7 @@
         <v>177</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
@@ -6366,7 +6447,7 @@
         <v>176</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
@@ -6375,7 +6456,7 @@
         <v>177</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -6389,7 +6470,7 @@
         <v>176</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
@@ -6398,7 +6479,7 @@
         <v>177</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
@@ -6412,16 +6493,16 @@
         <v>176</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
@@ -6435,19 +6516,19 @@
         <v>176</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>178</v>
@@ -6455,968 +6536,1520 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C254" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E254" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C261" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F269" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="E287" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F287" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D287" s="2" t="s">
+      <c r="G287" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D288" s="2" t="s">
+      <c r="E288" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G288" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="E289" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E289" s="2" t="s">
+      <c r="C301" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F289" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G289" s="2" t="s">
+      <c r="F301" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
         <v>224</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="258">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -838,7 +844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H321"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2218,7 +2224,7 @@
         <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>65</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2304,16 +2310,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>118</v>
@@ -2327,7 +2333,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>119</v>
@@ -2336,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>120</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>121</v>
@@ -2359,7 +2365,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>122</v>
@@ -2373,7 +2379,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>123</v>
@@ -2382,7 +2388,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>124</v>
@@ -2396,19 +2402,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2419,22 +2425,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>44</v>
@@ -2442,7 +2448,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>119</v>
@@ -2451,13 +2457,13 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>44</v>
@@ -2465,7 +2471,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>121</v>
@@ -2474,13 +2480,13 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>44</v>
@@ -2488,7 +2494,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>123</v>
@@ -2497,7 +2503,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>124</v>
@@ -2514,7 +2520,7 @@
         <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -2523,10 +2529,10 @@
         <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>44</v>
@@ -2534,22 +2540,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>44</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2701,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2793,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2839,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2862,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2885,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2931,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2954,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2994,19 +3000,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3023,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3040,19 +3046,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3063,19 +3069,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3086,19 +3092,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3109,19 +3115,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3138,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3155,22 +3161,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>44</v>
@@ -3178,19 +3184,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3201,22 +3207,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>44</v>
@@ -3224,19 +3230,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3253,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3270,19 +3276,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3299,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3316,19 +3322,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3339,19 +3345,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3368,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3385,19 +3391,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3408,19 +3414,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3431,19 +3437,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3454,19 +3460,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3477,19 +3483,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3500,19 +3506,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3523,19 +3529,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3546,19 +3552,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3569,19 +3575,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3592,19 +3598,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3615,19 +3621,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3638,19 +3644,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3661,19 +3667,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3684,19 +3690,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3707,19 +3713,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3730,19 +3736,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3753,19 +3759,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3776,19 +3782,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3802,22 +3808,22 @@
         <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130">
@@ -3825,22 +3831,22 @@
         <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131">
@@ -3848,505 +3854,505 @@
         <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153">
@@ -4354,7 +4360,7 @@
         <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
@@ -4363,13 +4369,13 @@
         <v>168</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154">
@@ -4377,22 +4383,22 @@
         <v>167</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155">
@@ -4400,7 +4406,7 @@
         <v>167</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
@@ -4409,3517 +4415,3517 @@
         <v>168</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="E201" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
+      <c r="E202" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="E203" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="E204" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="E226" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="E227" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="E228" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="E229" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="E249" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E250" s="2" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E251" s="2" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E252" s="2" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E253" s="2" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E254" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E255" s="2" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E257" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E262" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" s="2" t="s">
+      <c r="E263" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D270" s="2" t="s">
+      <c r="F270" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="E271" s="2" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C282" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E282" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F299" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G299" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G305" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G306" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
@@ -7928,7 +7934,7 @@
         <v>53</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
@@ -7939,22 +7945,22 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>44</v>
@@ -7962,19 +7968,19 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
@@ -7985,71 +7991,255 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>249</v>
+        <v>53</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="C318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D313" s="2" t="s">
+      <c r="C320" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E313" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G313" s="2" t="s">
+      <c r="B321" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" s="2" t="s">
         <v>251</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="260">
   <si>
     <t>Sezione</t>
   </si>
@@ -504,6 +504,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -844,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H326"/>
+  <dimension ref="A1:H328"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4150,19 +4156,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4173,19 +4179,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4196,19 +4202,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4219,19 +4225,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4242,19 +4248,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4265,19 +4271,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4288,19 +4294,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4311,19 +4317,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4334,19 +4340,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4357,19 +4363,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4380,19 +4386,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4403,19 +4409,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4429,7 +4435,7 @@
         <v>168</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -4438,13 +4444,13 @@
         <v>169</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157">
@@ -4452,3641 +4458,3641 @@
         <v>168</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="E208" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
+      <c r="E209" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="E234" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="2" t="s">
+      <c r="E235" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="E260" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E261" s="2" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E268" s="2" t="s">
+      <c r="F268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" s="2" t="s">
+      <c r="E274" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D276" s="2" t="s">
+      <c r="F276" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G276" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D282" s="2" t="s">
+      <c r="E282" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E284" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C288" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E288" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
@@ -8095,7 +8101,7 @@
         <v>50</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
@@ -8106,10 +8112,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>12</v>
@@ -8118,10 +8124,10 @@
         <v>50</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>41</v>
@@ -8129,19 +8135,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
@@ -8152,22 +8158,22 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>41</v>
@@ -8175,19 +8181,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
@@ -8198,10 +8204,10 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -8210,7 +8216,7 @@
         <v>50</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
@@ -8221,10 +8227,10 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -8233,7 +8239,7 @@
         <v>50</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
@@ -8244,19 +8250,19 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
@@ -8267,19 +8273,19 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
@@ -8290,71 +8296,117 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C325" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C326" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D326" s="2" t="s">
+      <c r="C327" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E326" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G326" s="2" t="s">
+      <c r="B328" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D328" s="2" t="s">
         <v>253</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -7773,7 +7773,7 @@
         <v>86</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>223</v>
@@ -7796,7 +7796,7 @@
         <v>88</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>223</v>
@@ -7805,7 +7805,7 @@
         <v>89</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>225</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="262">
   <si>
     <t>Sezione</t>
   </si>
@@ -792,6 +792,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -850,7 +856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H328"/>
+  <dimension ref="A1:H329"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8409,6 +8415,29 @@
         <v>255</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="266">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -856,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H329"/>
+  <dimension ref="A1:H345"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2213,7 +2225,7 @@
         <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>62</v>
@@ -2236,7 +2248,7 @@
         <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>62</v>
@@ -2276,19 +2288,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2311,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2322,16 +2334,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>121</v>
@@ -2345,7 +2357,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>122</v>
@@ -2354,7 +2366,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>123</v>
@@ -2368,7 +2380,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>124</v>
@@ -2377,7 +2389,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>125</v>
@@ -2391,19 +2403,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2414,22 +2426,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>41</v>
@@ -2437,16 +2449,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>121</v>
@@ -2460,7 +2472,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>122</v>
@@ -2469,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>123</v>
@@ -2483,7 +2495,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>124</v>
@@ -2492,13 +2504,13 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>41</v>
@@ -2506,22 +2518,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>41</v>
@@ -2529,22 +2541,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>41</v>
@@ -2552,22 +2564,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>41</v>
@@ -2575,19 +2587,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2610,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2633,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2656,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2679,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2702,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2725,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2748,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2759,19 +2771,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2794,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2817,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2840,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2863,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2886,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2909,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2920,19 +2932,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2943,19 +2955,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2966,19 +2978,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2989,19 +3001,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -3012,19 +3024,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3047,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3070,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3093,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3104,19 +3116,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3127,19 +3139,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3150,19 +3162,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3173,19 +3185,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3196,22 +3208,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>41</v>
@@ -3219,19 +3231,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3242,19 +3254,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3265,19 +3277,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3288,22 +3300,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>41</v>
@@ -3311,19 +3323,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3334,19 +3346,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3357,19 +3369,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3380,19 +3392,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3403,19 +3415,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3426,19 +3438,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3449,19 +3461,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3472,19 +3484,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3495,19 +3507,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3518,19 +3530,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3541,19 +3553,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3564,19 +3576,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3587,19 +3599,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3610,19 +3622,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3633,19 +3645,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3656,19 +3668,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3679,19 +3691,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3702,19 +3714,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3725,19 +3737,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3748,19 +3760,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3771,19 +3783,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3794,19 +3806,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3817,19 +3829,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3840,19 +3852,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3863,19 +3875,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3886,4556 +3898,4924 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E262" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E269" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G269" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E279" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B301" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E301" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="E315" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F315" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E315" s="2" t="s">
+      <c r="G315" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G315" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D316" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B316" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E316" s="2" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B317" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E317" s="2" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D318" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B318" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E318" s="2" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E319" s="2" t="s">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E320" s="2" t="s">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B321" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E321" s="2" t="s">
-        <v>242</v>
+        <v>99</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E322" s="2" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B323" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E323" s="2" t="s">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E324" s="2" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E325" s="2" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="C340" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B343" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C329" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E329" s="2" t="s">
+      <c r="C343" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E343" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F329" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G329" s="2" t="s">
+      <c r="F343" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
         <v>255</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
